--- a/templates/3ASY03_Metabolomics/3ASY03_Metabolomics.xlsx
+++ b/templates/3ASY03_Metabolomics/3ASY03_Metabolomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/3ASY03_Metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D299A-D541-9A47-9083-A3AB97419260}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7EA41-ABD7-D94D-84EC-566A3450CFC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_Metabolomics" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dominik Brilhaus</author>
+  </authors>
+  <commentList>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{2076A4C6-9CF0-4E49-B30A-525EE801BCB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dominik Brilhaus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cv: controlled vocabulary
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">m: mandatory 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">o: optional (can be mapped)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>n: not required (cannot be mapped)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="155">
   <si>
     <t>Source Name</t>
   </si>
@@ -166,13 +239,338 @@
   </si>
   <si>
     <t>Term Accession Number [detector type] (#h; #tMS:1000026)</t>
+  </si>
+  <si>
+    <t>SWATE annotation table</t>
+  </si>
+  <si>
+    <t>Content examples</t>
+  </si>
+  <si>
+    <t>Semantic Modelling</t>
+  </si>
+  <si>
+    <t>Term Name</t>
+  </si>
+  <si>
+    <t>Term Accession Number (TAN)</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>is_a</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
+  </si>
+  <si>
+    <t>Content type (Validation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment: </t>
+  </si>
+  <si>
+    <t>ER target term</t>
+  </si>
+  <si>
+    <t>ER requirement (cv/m/o/n)</t>
+  </si>
+  <si>
+    <t>Importance (0-5)</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>User instruction</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>ER METABOLIGHTS_METABOLOMICS</t>
+  </si>
+  <si>
+    <t>dried in a vacuum centrifuge, resuspended  in ddH2O</t>
+  </si>
+  <si>
+    <t>dried samples resuspended in pyridine</t>
+  </si>
+  <si>
+    <t>pooled sample</t>
+  </si>
+  <si>
+    <t>silylation</t>
+  </si>
+  <si>
+    <t>Thermo Scientific Dionex Ultimate 3000 HPLC system</t>
+  </si>
+  <si>
+    <t>XSelect HSS T3 (2 5 ¬µm, 3 0 mm x 150 mm length; Waters)</t>
+  </si>
+  <si>
+    <t>reverse phase</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Bruker maXis 4G UHR-ToF</t>
+  </si>
+  <si>
+    <t>electrospray ionization</t>
+  </si>
+  <si>
+    <t>Solid phase microextraction (SPME)</t>
+  </si>
+  <si>
+    <t>dried samples resuspended in acetonitrile</t>
+  </si>
+  <si>
+    <t>medium blank</t>
+  </si>
+  <si>
+    <t>methoxymation and silylation</t>
+  </si>
+  <si>
+    <t>Agilent 7890B GC</t>
+  </si>
+  <si>
+    <t>GERSTEL MultiPurpose Sampler (MPS) Dual Head</t>
+  </si>
+  <si>
+    <t>HP-5ms GC (0 25 ¬µm, 0 25 mm x 30 m; Agilent Technologies)</t>
+  </si>
+  <si>
+    <t>low polarity</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Waters SYNAPT HDMS System</t>
+  </si>
+  <si>
+    <t>quadrupole</t>
+  </si>
+  <si>
+    <t>direct injection</t>
+  </si>
+  <si>
+    <t>methoxymation</t>
+  </si>
+  <si>
+    <t>Agilent 5975T LTM GC</t>
+  </si>
+  <si>
+    <t>Agilent 5975C inert XL MSD</t>
+  </si>
+  <si>
+    <t>electron ionization</t>
+  </si>
+  <si>
+    <t>single quadrupole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dried in vacuum concentrator </t>
+  </si>
+  <si>
+    <t>retention index standard</t>
+  </si>
+  <si>
+    <t>methoxyamination + trimethylsylilation (TMS)</t>
+  </si>
+  <si>
+    <t>Waters ACQUITY UPLC system</t>
+  </si>
+  <si>
+    <t>Synergi Polar-RP (4 µm, 4 6 mm x 100 mm; Phenomenex)</t>
+  </si>
+  <si>
+    <t>electron impact</t>
+  </si>
+  <si>
+    <t>experimental sample</t>
+  </si>
+  <si>
+    <t>Thermo Scientific Vanquish UHPLC System</t>
+  </si>
+  <si>
+    <t>ACQUITY UPLC HSS T3 (1 8 µm, 2 1 mm x 100 mm; Waters)</t>
+  </si>
+  <si>
+    <t>ACQUITY UPLC HSS T3 VanGuard Pre-column (1 8 µm, 2 1 mm x 5 mm; Waters)</t>
+  </si>
+  <si>
+    <t>Agilent 6560 Ion Mobility Q-TOF</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000043</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000044</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000045</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000052</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000046</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000047</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000048</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000053</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000049</t>
+  </si>
+  <si>
+    <t>MS sample post-extraction</t>
+  </si>
+  <si>
+    <t>MS sample resuspension</t>
+  </si>
+  <si>
+    <t>MS sample type</t>
+  </si>
+  <si>
+    <t>MS derivatization</t>
+  </si>
+  <si>
+    <t>Chromatography Instrument model</t>
+  </si>
+  <si>
+    <t>Chromatography autosampler model</t>
+  </si>
+  <si>
+    <t>Chromatography column model</t>
+  </si>
+  <si>
+    <t>Scan polarity</t>
+  </si>
+  <si>
+    <t>scan window lower limit</t>
+  </si>
+  <si>
+    <t>scan window upper limit</t>
+  </si>
+  <si>
+    <t>instrument model</t>
+  </si>
+  <si>
+    <t>ionization type</t>
+  </si>
+  <si>
+    <t>mass analyzer type</t>
+  </si>
+  <si>
+    <t>detector type</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>Unit: m/z</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0001485</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000465</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000501</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000500</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000031</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000008</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000443</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000026</t>
+  </si>
+  <si>
+    <t>similar to http://purl.obolibrary.org/obo/OBI_0000555</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0001000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_a http://purl.obolibrary.org/obo/OBI_0000614
+Although looking for a model name here. </t>
+  </si>
+  <si>
+    <t>CHMO:0001485: derivatisation</t>
+  </si>
+  <si>
+    <t>similar to http://purl.obolibrary.org/obo/OBI_0000048</t>
+  </si>
+  <si>
+    <t>Parameter [Chromatography column model]</t>
+  </si>
+  <si>
+    <t>Term Source REF [Chromatography column model] (#h; #tNFDI4PSO:0000048)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [Chromatography column model] (#h; #tNFDI4PSO:0000048)</t>
+  </si>
+  <si>
+    <t>CHMO_0001000: chromatography</t>
+  </si>
+  <si>
+    <t>Chromatography column type</t>
+  </si>
+  <si>
+    <t>Chromatography guard column model</t>
+  </si>
+  <si>
+    <t>MS:1000465</t>
+  </si>
+  <si>
+    <t>MS:1000501</t>
+  </si>
+  <si>
+    <t>MS:1000500</t>
+  </si>
+  <si>
+    <t>MS:1000031</t>
+  </si>
+  <si>
+    <t>MS:1000008</t>
+  </si>
+  <si>
+    <t>MS:1000443</t>
+  </si>
+  <si>
+    <t>MS:1000026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,8 +586,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +645,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4FB3D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF377D98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,10 +717,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,11 +733,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{751FC18E-D306-8B42-912B-598F45328FEF}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -320,54 +844,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BA91F90-A206-C24A-B071-E1351392860E}" name="annotationTable" displayName="annotationTable" ref="A2:AU3" totalsRowShown="0">
-  <autoFilter ref="A2:AU3" xr:uid="{155D8245-62B7-F340-A809-633676FF14D5}"/>
-  <tableColumns count="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BA91F90-A206-C24A-B071-E1351392860E}" name="annotationTable" displayName="annotationTable" ref="C2:AZ3" totalsRowShown="0">
+  <autoFilter ref="C2:AZ3" xr:uid="{155D8245-62B7-F340-A809-633676FF14D5}"/>
+  <tableColumns count="50">
     <tableColumn id="1" xr3:uid="{BBBF64BA-87C6-D34E-A6CD-4299F4D962C8}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{14AC94B4-25B3-E44B-8B75-F5DA7ADF4505}" name="Sample Name"/>
-    <tableColumn id="3" xr3:uid="{DE8A40D7-A9A3-6D44-A444-4CDA584115FB}" name="Parameter [MS sample post-extraction]" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{DE8A40D7-A9A3-6D44-A444-4CDA584115FB}" name="Parameter [MS sample post-extraction]" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{91DB6965-9407-084F-B87C-167B363C8F64}" name="Term Source REF [MS sample post-extraction] (#h; #tNFDI4PSO:0000043)"/>
     <tableColumn id="5" xr3:uid="{8F068F1B-0799-934A-A950-0CCA864FA729}" name="Term Accession Number [MS sample post-extraction] (#h; #tNFDI4PSO:0000043)"/>
-    <tableColumn id="6" xr3:uid="{C6859ADD-6217-6046-B9CE-0E2C44AEB18F}" name="Parameter [MS sample resuspension]" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C6859ADD-6217-6046-B9CE-0E2C44AEB18F}" name="Parameter [MS sample resuspension]" dataDxfId="14"/>
     <tableColumn id="7" xr3:uid="{7FBCD097-8CAE-F140-921C-B77023BC4AE2}" name="Term Source REF [MS sample resuspension] (#h; #tNFDI4PSO:0000044)"/>
     <tableColumn id="8" xr3:uid="{81B6A235-8405-DD4A-8C68-E37AC0D99B1B}" name="Term Accession Number [MS sample resuspension] (#h; #tNFDI4PSO:0000044)"/>
-    <tableColumn id="9" xr3:uid="{0D61368D-553F-1949-B1E3-71D3E20AD860}" name="Parameter [MS sample type]" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{0D61368D-553F-1949-B1E3-71D3E20AD860}" name="Parameter [MS sample type]" dataDxfId="13"/>
     <tableColumn id="10" xr3:uid="{6179952F-0BCA-CF4E-944F-EB19C4832C67}" name="Term Source REF [MS sample type] (#h; #tNFDI4PSO:0000045)"/>
     <tableColumn id="11" xr3:uid="{994D6D0B-5285-DE4E-95A4-E184360E374C}" name="Term Accession Number [MS sample type] (#h; #tNFDI4PSO:0000045)"/>
-    <tableColumn id="12" xr3:uid="{B56199D0-4A72-9A48-A183-6470EDD554B1}" name="Parameter [MS derivatization]" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{B56199D0-4A72-9A48-A183-6470EDD554B1}" name="Parameter [MS derivatization]" dataDxfId="12"/>
     <tableColumn id="13" xr3:uid="{2D30CB05-A2E2-F747-B469-07C250031A33}" name="Term Source REF [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
     <tableColumn id="14" xr3:uid="{6110C472-0713-954C-9FD7-812784023EE1}" name="Term Accession Number [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
-    <tableColumn id="18" xr3:uid="{F21D0BDF-9000-5547-AD8A-1BE6C6EB09E6}" name="Parameter [Chromatography instrument model]" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{F21D0BDF-9000-5547-AD8A-1BE6C6EB09E6}" name="Parameter [Chromatography instrument model]" dataDxfId="11"/>
     <tableColumn id="19" xr3:uid="{93F305FB-AF63-0547-9A9E-9316392B763C}" name="Term Source REF [Chromatography instrument model] (#h; #tNFDI4PSO:0000046)"/>
     <tableColumn id="20" xr3:uid="{036AA641-2BC0-5847-B2EF-7FA1822B2E7C}" name="Term Accession Number [Chromatography instrument model] (#h; #tNFDI4PSO:0000046)"/>
-    <tableColumn id="21" xr3:uid="{81B5AB82-D2E2-C740-93BA-2766BD270F4C}" name="Parameter [Chromatography autosampler model]" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{81B5AB82-D2E2-C740-93BA-2766BD270F4C}" name="Parameter [Chromatography autosampler model]" dataDxfId="10"/>
     <tableColumn id="22" xr3:uid="{9B4B8450-0F52-524D-BC1F-8E8E4F80A6BE}" name="Term Source REF [Chromatography autosampler model] (#h; #tNFDI4PSO:0000047)"/>
     <tableColumn id="23" xr3:uid="{2C883FF4-82A2-EF44-8B01-97DEF7569A6D}" name="Term Accession Number [Chromatography autosampler model] (#h; #tNFDI4PSO:0000047)"/>
-    <tableColumn id="24" xr3:uid="{512E4A1B-6AF1-BB4D-8962-A4698189D07B}" name="Parameter [Chromatography column type]" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{512E4A1B-6AF1-BB4D-8962-A4698189D07B}" name="Parameter [Chromatography column type]" dataDxfId="9"/>
     <tableColumn id="25" xr3:uid="{B270572B-8B22-1B4F-9EC7-50CCCD074C18}" name="Term Source REF [Chromatography column type] (#h; #tNFDI4PSO:0000053)"/>
     <tableColumn id="26" xr3:uid="{FD917BD1-F453-8F4C-BBB1-50D7883F34ED}" name="Term Accession Number [Chromatography column type] (#h; #tNFDI4PSO:0000053)"/>
-    <tableColumn id="27" xr3:uid="{17F7E68D-3B88-FF43-A4B3-399DCFB2F59B}" name="Parameter [Chromatography guard column model]" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{B77278E7-9132-F84E-8F09-B3C5A6FCEB98}" name="Parameter [Chromatography column model]" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{C8D2A8BF-92D3-8844-B3A5-624551FA014E}" name="Term Source REF [Chromatography column model] (#h; #tNFDI4PSO:0000048)"/>
+    <tableColumn id="17" xr3:uid="{1DBC3227-CDE2-F448-A105-909606EBE21D}" name="Term Accession Number [Chromatography column model] (#h; #tNFDI4PSO:0000048)"/>
+    <tableColumn id="27" xr3:uid="{17F7E68D-3B88-FF43-A4B3-399DCFB2F59B}" name="Parameter [Chromatography guard column model]" dataDxfId="8"/>
     <tableColumn id="28" xr3:uid="{A4809FDB-124E-3C42-BAE1-11373D15BF08}" name="Term Source REF [Chromatography guard column model] (#h; #tNFDI4PSO:0000049)"/>
     <tableColumn id="29" xr3:uid="{FA85BE75-6B6C-7140-AC46-8BA24514D954}" name="Term Accession Number [Chromatography guard column model] (#h; #tNFDI4PSO:0000049)"/>
-    <tableColumn id="30" xr3:uid="{183360A2-948E-BB46-9A5B-9314170BA82F}" name="Parameter [scan polarity]" dataDxfId="6"/>
+    <tableColumn id="30" xr3:uid="{183360A2-948E-BB46-9A5B-9314170BA82F}" name="Parameter [scan polarity]" dataDxfId="7"/>
     <tableColumn id="31" xr3:uid="{8CE758DF-293A-5B43-8923-E07BBEA300B9}" name="Term Source REF [scan polarity] (#h; #tMS:1000465)"/>
     <tableColumn id="32" xr3:uid="{C2D1CF91-64E8-8844-B84E-0198C9EBC687}" name="Term Accession Number [scan polarity] (#h; #tMS:1000465)"/>
-    <tableColumn id="33" xr3:uid="{1BE5C769-A04D-F344-AF0D-86BBBDED416E}" name="Parameter [scan window lower limit]" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{1BE5C769-A04D-F344-AF0D-86BBBDED416E}" name="Parameter [scan window lower limit]" dataDxfId="6"/>
     <tableColumn id="34" xr3:uid="{720A408D-0D3D-5A47-9C32-FA091FF2BBA5}" name="Term Source REF [scan window lower limit] (#h; #tMS:1000501)"/>
     <tableColumn id="35" xr3:uid="{10AC5530-C162-4F4B-B33D-69144D995141}" name="Term Accession Number [scan window lower limit] (#h; #tMS:1000501)"/>
-    <tableColumn id="36" xr3:uid="{C8558B98-C98A-A244-A439-51E3B9875A8F}" name="Parameter [scan window upper limit]" dataDxfId="4"/>
+    <tableColumn id="36" xr3:uid="{C8558B98-C98A-A244-A439-51E3B9875A8F}" name="Parameter [scan window upper limit]" dataDxfId="5"/>
     <tableColumn id="37" xr3:uid="{8001FAB7-F714-324C-B592-D83361B52D1A}" name="Term Source REF [scan window upper limit] (#h; #tMS:1000500)"/>
     <tableColumn id="38" xr3:uid="{09050567-9154-5644-9F7E-7A35F81C36C5}" name="Term Accession Number [scan window upper limit] (#h; #tMS:1000500)"/>
-    <tableColumn id="39" xr3:uid="{7C0DFAF7-046E-534F-9C57-89FEE3E72208}" name="Parameter [instrument model]" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{7C0DFAF7-046E-534F-9C57-89FEE3E72208}" name="Parameter [instrument model]" dataDxfId="4"/>
     <tableColumn id="40" xr3:uid="{3B19E320-D898-6947-A400-B7D35D58F1A6}" name="Term Source REF [instrument model] (#h; #tMS:1000031)"/>
     <tableColumn id="41" xr3:uid="{14CC0697-3DFB-3447-B1FD-767F08108295}" name="Term Accession Number [instrument model] (#h; #tMS:1000031)"/>
-    <tableColumn id="42" xr3:uid="{97CC8885-D3E6-AA4E-A1AA-E031764C9196}" name="Parameter [ionization type]" dataDxfId="2"/>
+    <tableColumn id="42" xr3:uid="{97CC8885-D3E6-AA4E-A1AA-E031764C9196}" name="Parameter [ionization type]" dataDxfId="3"/>
     <tableColumn id="43" xr3:uid="{5BD69720-0711-3440-BFAD-856D20CC0859}" name="Term Source REF [ionization type] (#h; #tMS:1000008)"/>
     <tableColumn id="44" xr3:uid="{ED78172F-0957-0649-9712-53DC91AAEF41}" name="Term Accession Number [ionization type] (#h; #tMS:1000008)"/>
-    <tableColumn id="45" xr3:uid="{209174F2-9485-7D4F-9577-999720963CA1}" name="Parameter [mass analyzer type]" dataDxfId="1"/>
+    <tableColumn id="45" xr3:uid="{209174F2-9485-7D4F-9577-999720963CA1}" name="Parameter [mass analyzer type]" dataDxfId="2"/>
     <tableColumn id="46" xr3:uid="{E1C36D22-2A7B-F04A-AF75-00C1C8C9CAF4}" name="Term Source REF [mass analyzer type] (#h; #tMS:1000443)"/>
     <tableColumn id="47" xr3:uid="{F695DECA-D1D9-A542-8FEF-479135275C4A}" name="Term Accession Number [mass analyzer type] (#h; #tMS:1000443)"/>
-    <tableColumn id="48" xr3:uid="{B0DDCF73-7408-C247-9E67-7CBF0B943A49}" name="Parameter [detector type]" dataDxfId="0"/>
+    <tableColumn id="48" xr3:uid="{B0DDCF73-7408-C247-9E67-7CBF0B943A49}" name="Parameter [detector type]" dataDxfId="1"/>
     <tableColumn id="49" xr3:uid="{9E7C28E6-2B09-5A4D-BEA2-E89CA9B02622}" name="Term Source REF [detector type] (#h; #tMS:1000026)"/>
     <tableColumn id="50" xr3:uid="{2EAE4DF7-6E4D-8044-9A56-E7115F15BB64}" name="Term Accession Number [detector type] (#h; #tMS:1000026)"/>
   </tableColumns>
@@ -689,68 +1216,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35F31B6-C4E7-AF4A-AFC7-8DE959780CB6}">
-  <dimension ref="A1:AU3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35F31B6-C4E7-AF4A-AFC7-8DE959780CB6}">
+  <dimension ref="A1:AZ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="70" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.83203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="64" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="72.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="78.83203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="74" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="80.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="68" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="74.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="74.83203125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="81.1640625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="47.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="53.83203125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="35" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="57.6640625" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="63.83203125" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="35" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="57.6640625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="63.83203125" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="52" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="58.1640625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="49.33203125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="55.6640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="53.33203125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="59.5" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="48.1640625" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="54.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="37.5" style="18"/>
+    <col min="3" max="16384" width="37.5" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -794,172 +1281,1923 @@
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
       <c r="AT1" s="4"/>
-      <c r="AU1" s="2"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="2"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AD2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AE2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AF2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AG2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AH2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AI2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AJ2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AK2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AL2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AM2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AN2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AO2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AP2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AQ2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AR2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AS2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AT2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AU2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AV2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AW2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AY2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AZ2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AS3" s="3"/>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" s="3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3" s="3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3" s="3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21">
+        <v>1300</v>
+      </c>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21">
+        <v>60</v>
+      </c>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21">
+        <v>1200</v>
+      </c>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21">
+        <v>50</v>
+      </c>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21">
+        <v>650</v>
+      </c>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24"/>
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="24"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="24"/>
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="24"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="24"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="24"/>
+      <c r="AT23" s="24"/>
+      <c r="AU23" s="24"/>
+      <c r="AV23" s="24"/>
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="24"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="24"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="24"/>
+      <c r="AR24" s="24"/>
+      <c r="AS24" s="24"/>
+      <c r="AT24" s="24"/>
+      <c r="AU24" s="24"/>
+      <c r="AV24" s="24"/>
+      <c r="AW24" s="24"/>
+      <c r="AX24" s="24"/>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="24"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="24"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
+      <c r="AR27" s="24"/>
+      <c r="AS27" s="24"/>
+      <c r="AT27" s="24"/>
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="24"/>
+      <c r="AW27" s="24"/>
+      <c r="AX27" s="24"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="24"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="20"/>
+      <c r="AV29" s="20"/>
+      <c r="AW29" s="20"/>
+      <c r="AX29" s="20"/>
+      <c r="AY29" s="20"/>
+      <c r="AZ29" s="20"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T17" r:id="rId1" display="http://purl.obolibrary.org/obo/OBI_0000555" xr:uid="{0F4407F2-2D05-9749-8F4A-097A23356DC6}"/>
+    <hyperlink ref="AR13" r:id="rId2" xr:uid="{E0715D4C-5FD8-164C-8257-A0A0BB5625EF}"/>
+    <hyperlink ref="AX13" r:id="rId3" xr:uid="{1118F33C-B27D-7644-9A23-642B8181A934}"/>
+    <hyperlink ref="AO13" r:id="rId4" xr:uid="{5C10F8DF-4069-1E45-BEC7-4ABBE409B1F1}"/>
+    <hyperlink ref="AL13" r:id="rId5" xr:uid="{7B350DBC-6C76-794D-85BA-8624BC573C2E}"/>
+    <hyperlink ref="AI13" r:id="rId6" xr:uid="{B99BA9A9-46C5-1B48-AE21-57ECD9E93AB8}"/>
+    <hyperlink ref="AF13" r:id="rId7" xr:uid="{024CDF76-7112-4C41-944B-513D5B8E37D7}"/>
+    <hyperlink ref="N15" r:id="rId8" xr:uid="{928BEA63-C89C-E840-9AB2-70741BECA407}"/>
+    <hyperlink ref="AU13" r:id="rId9" xr:uid="{41401BAE-D4B2-034D-BAB8-7E0B9A642874}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
